--- a/data/excel/sim.xlsx
+++ b/data/excel/sim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Downloads/eSim2/data/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Downloads/eSim/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF050312-5E28-464B-9D93-E69A3B739F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E1C24A-E122-5D46-8788-79BF2E3E8A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="760" windowWidth="29100" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
   <si>
     <t>Nhà mạng</t>
   </si>
@@ -641,6 +641,15 @@
   </si>
   <si>
     <t>8401240712078180</t>
+  </si>
+  <si>
+    <t>VNSKY</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>8401240512602090</t>
   </si>
 </sst>
 </file>
@@ -697,10 +706,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,13 +1017,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1036,6 +1057,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1044,6 +1068,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1052,6 +1079,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1060,6 +1090,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1068,6 +1101,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1076,6 +1112,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1084,6 +1123,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1092,6 +1134,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -1100,6 +1145,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1108,6 +1156,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1116,6 +1167,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -1124,6 +1178,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1132,6 +1189,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1140,6 +1200,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -1148,6 +1211,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>207</v>
+      </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -1155,7 +1221,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>207</v>
+      </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -1163,7 +1232,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1243,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1254,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -1187,7 +1265,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -1195,7 +1276,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
@@ -1203,7 +1287,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
@@ -1211,7 +1298,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
       <c r="B24" t="s">
         <v>51</v>
       </c>
@@ -1219,7 +1309,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
@@ -1227,7 +1320,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -1235,7 +1331,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
@@ -1243,7 +1342,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
       <c r="B28" t="s">
         <v>59</v>
       </c>
@@ -1251,7 +1353,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -1259,7 +1364,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
       <c r="B30" t="s">
         <v>63</v>
       </c>
@@ -1267,7 +1375,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>207</v>
+      </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
@@ -1275,7 +1386,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
       <c r="B32" t="s">
         <v>67</v>
       </c>
@@ -1283,7 +1397,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>207</v>
+      </c>
       <c r="B33" t="s">
         <v>69</v>
       </c>
@@ -1291,7 +1408,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>207</v>
+      </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
@@ -1299,7 +1419,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
       <c r="B35" t="s">
         <v>73</v>
       </c>
@@ -1307,7 +1430,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
       <c r="B36" t="s">
         <v>75</v>
       </c>
@@ -1315,7 +1441,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
@@ -1323,7 +1452,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
       <c r="B38" t="s">
         <v>79</v>
       </c>
@@ -1331,7 +1463,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>207</v>
+      </c>
       <c r="B39" t="s">
         <v>81</v>
       </c>
@@ -1339,7 +1474,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>207</v>
+      </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
@@ -1347,7 +1485,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
       <c r="B41" t="s">
         <v>85</v>
       </c>
@@ -1355,7 +1496,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
       <c r="B42" t="s">
         <v>87</v>
       </c>
@@ -1363,7 +1507,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>207</v>
+      </c>
       <c r="B43" t="s">
         <v>89</v>
       </c>
@@ -1371,7 +1518,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
       <c r="B44" t="s">
         <v>91</v>
       </c>
@@ -1379,7 +1529,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>207</v>
+      </c>
       <c r="B45" t="s">
         <v>93</v>
       </c>
@@ -1387,7 +1540,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
       <c r="B46" t="s">
         <v>95</v>
       </c>
@@ -1395,7 +1551,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
       <c r="B47" t="s">
         <v>97</v>
       </c>
@@ -1403,7 +1562,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>207</v>
+      </c>
       <c r="B48" t="s">
         <v>99</v>
       </c>
@@ -1411,7 +1573,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
       <c r="B49" t="s">
         <v>101</v>
       </c>
@@ -1419,7 +1584,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>207</v>
+      </c>
       <c r="B50" t="s">
         <v>103</v>
       </c>
@@ -1427,7 +1595,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>207</v>
+      </c>
       <c r="B51" t="s">
         <v>105</v>
       </c>
@@ -1435,7 +1606,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>207</v>
+      </c>
       <c r="B52" t="s">
         <v>107</v>
       </c>
@@ -1443,7 +1617,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>207</v>
+      </c>
       <c r="B53" t="s">
         <v>109</v>
       </c>
@@ -1451,7 +1628,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>207</v>
+      </c>
       <c r="B54" t="s">
         <v>111</v>
       </c>
@@ -1459,7 +1639,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>207</v>
+      </c>
       <c r="B55" t="s">
         <v>113</v>
       </c>
@@ -1467,7 +1650,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>207</v>
+      </c>
       <c r="B56" t="s">
         <v>115</v>
       </c>
@@ -1475,7 +1661,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>207</v>
+      </c>
       <c r="B57" t="s">
         <v>117</v>
       </c>
@@ -1483,7 +1672,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>207</v>
+      </c>
       <c r="B58" t="s">
         <v>119</v>
       </c>
@@ -1491,7 +1683,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>207</v>
+      </c>
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -1499,7 +1694,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>207</v>
+      </c>
       <c r="B60" t="s">
         <v>123</v>
       </c>
@@ -1507,7 +1705,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>207</v>
+      </c>
       <c r="B61" t="s">
         <v>125</v>
       </c>
@@ -1515,7 +1716,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
       <c r="B62" t="s">
         <v>127</v>
       </c>
@@ -1523,7 +1727,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>207</v>
+      </c>
       <c r="B63" t="s">
         <v>129</v>
       </c>
@@ -1531,7 +1738,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
       <c r="B64" t="s">
         <v>131</v>
       </c>
@@ -1539,7 +1749,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
       <c r="B65" t="s">
         <v>133</v>
       </c>
@@ -1547,7 +1760,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>207</v>
+      </c>
       <c r="B66" t="s">
         <v>135</v>
       </c>
@@ -1555,7 +1771,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>207</v>
+      </c>
       <c r="B67" t="s">
         <v>137</v>
       </c>
@@ -1563,7 +1782,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
       <c r="B68" t="s">
         <v>139</v>
       </c>
@@ -1571,7 +1793,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>207</v>
+      </c>
       <c r="B69" t="s">
         <v>141</v>
       </c>
@@ -1579,7 +1804,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
       <c r="B70" t="s">
         <v>143</v>
       </c>
@@ -1587,7 +1815,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>207</v>
+      </c>
       <c r="B71" t="s">
         <v>145</v>
       </c>
@@ -1595,7 +1826,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>207</v>
+      </c>
       <c r="B72" t="s">
         <v>147</v>
       </c>
@@ -1603,7 +1837,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
       <c r="B73" t="s">
         <v>149</v>
       </c>
@@ -1611,7 +1848,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>207</v>
+      </c>
       <c r="B74" t="s">
         <v>151</v>
       </c>
@@ -1619,7 +1859,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>207</v>
+      </c>
       <c r="B75" t="s">
         <v>153</v>
       </c>
@@ -1627,7 +1870,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>207</v>
+      </c>
       <c r="B76" t="s">
         <v>155</v>
       </c>
@@ -1635,7 +1881,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>207</v>
+      </c>
       <c r="B77" t="s">
         <v>157</v>
       </c>
@@ -1643,7 +1892,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>207</v>
+      </c>
       <c r="B78" t="s">
         <v>159</v>
       </c>
@@ -1651,7 +1903,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>207</v>
+      </c>
       <c r="B79" t="s">
         <v>161</v>
       </c>
@@ -1659,7 +1914,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>207</v>
+      </c>
       <c r="B80" t="s">
         <v>163</v>
       </c>
@@ -1667,7 +1925,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>207</v>
+      </c>
       <c r="B81" t="s">
         <v>165</v>
       </c>
@@ -1675,7 +1936,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>207</v>
+      </c>
       <c r="B82" t="s">
         <v>167</v>
       </c>
@@ -1683,7 +1947,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>207</v>
+      </c>
       <c r="B83" t="s">
         <v>169</v>
       </c>
@@ -1691,7 +1958,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>207</v>
+      </c>
       <c r="B84" t="s">
         <v>171</v>
       </c>
@@ -1699,7 +1969,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
       <c r="B85" t="s">
         <v>173</v>
       </c>
@@ -1707,7 +1980,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>207</v>
+      </c>
       <c r="B86" t="s">
         <v>175</v>
       </c>
@@ -1715,7 +1991,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>207</v>
+      </c>
       <c r="B87" t="s">
         <v>177</v>
       </c>
@@ -1723,7 +2002,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>207</v>
+      </c>
       <c r="B88" t="s">
         <v>179</v>
       </c>
@@ -1731,7 +2013,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
       <c r="B89" t="s">
         <v>181</v>
       </c>
@@ -1739,7 +2024,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>207</v>
+      </c>
       <c r="B90" t="s">
         <v>183</v>
       </c>
@@ -1747,7 +2035,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>207</v>
+      </c>
       <c r="B91" t="s">
         <v>185</v>
       </c>
@@ -1755,7 +2046,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>207</v>
+      </c>
       <c r="B92" t="s">
         <v>187</v>
       </c>
@@ -1763,7 +2057,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>207</v>
+      </c>
       <c r="B93" t="s">
         <v>189</v>
       </c>
@@ -1771,7 +2068,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>207</v>
+      </c>
       <c r="B94" t="s">
         <v>191</v>
       </c>
@@ -1779,7 +2079,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
       <c r="B95" t="s">
         <v>193</v>
       </c>
@@ -1787,7 +2090,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
       <c r="B96" t="s">
         <v>195</v>
       </c>
@@ -1795,7 +2101,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>207</v>
+      </c>
       <c r="B97" t="s">
         <v>197</v>
       </c>
@@ -1803,7 +2112,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>207</v>
+      </c>
       <c r="B98" t="s">
         <v>199</v>
       </c>
@@ -1811,7 +2123,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>207</v>
+      </c>
       <c r="B99" t="s">
         <v>201</v>
       </c>
@@ -1819,7 +2134,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
       <c r="B100" t="s">
         <v>203</v>
       </c>
@@ -1827,12 +2145,26 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
       <c r="B101" t="s">
         <v>205</v>
       </c>
       <c r="C101" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="3">
+        <v>12934</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/sim.xlsx
+++ b/data/excel/sim.xlsx
@@ -2660,10 +2660,26 @@
           <t>8401231012026639</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>nguyenngoctan.hust@gmail.com</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Đã kích hoạt</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Mon, 6 Jan 2025 11:11:35 +0700</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>06/01/2025 11:12:30</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2681,10 +2697,26 @@
           <t>8401231012026640</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>nguyenngoctan.hust@gmail.com</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Đã kích hoạt</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Mon, 6 Jan 2025 11:20:49 +0700</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>06/01/2025 11:21:53</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2702,10 +2734,26 @@
           <t>8401231012026641</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>nguyenngoctan.hust@gmail.com</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Đã kích hoạt</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Mon, 6 Jan 2025 11:30:41 +0700</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>06/01/2025 11:31:53</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
